--- a/data/附表1-检索表格-流水号vs时间.xlsx
+++ b/data/附表1-检索表格-流水号vs时间.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的坚果云\2023.5数学建模\8.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\AI_CDM_for_ICH\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673C322F-1591-4253-9687-82EE6075967A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3492EEAC-C4E3-4A2C-B503-6B3211D98689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F33BE79C-C096-450C-B77F-444BDDE7C692}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="29784" windowHeight="16092" xr2:uid="{F33BE79C-C096-450C-B77F-444BDDE7C692}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,497 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
-  <si>
-    <t>Hemo0001</t>
-  </si>
-  <si>
-    <t>Hemo0002</t>
-  </si>
-  <si>
-    <t>Hemo0004</t>
-  </si>
-  <si>
-    <t>Hemo0006</t>
-  </si>
-  <si>
-    <t>Hemo0012</t>
-  </si>
-  <si>
-    <t>Hemo0020</t>
-  </si>
-  <si>
-    <t>Hemo0023</t>
-  </si>
-  <si>
-    <t>Hemo0024</t>
-  </si>
-  <si>
-    <t>Hemo0037</t>
-  </si>
-  <si>
-    <t>Hemo0045</t>
-  </si>
-  <si>
-    <t>Hemo0046</t>
-  </si>
-  <si>
-    <t>Hemo0049</t>
-  </si>
-  <si>
-    <t>Hemo0052</t>
-  </si>
-  <si>
-    <t>Hemo0053</t>
-  </si>
-  <si>
-    <t>Hemo0056</t>
-  </si>
-  <si>
-    <t>Hemo0067</t>
-  </si>
-  <si>
-    <t>Hemo0073</t>
-  </si>
-  <si>
-    <t>Hemo0074</t>
-  </si>
-  <si>
-    <t>Hemo0077</t>
-  </si>
-  <si>
-    <t>Hemo0080</t>
-  </si>
-  <si>
-    <t>Hemo0081</t>
-  </si>
-  <si>
-    <t>Hemo0083</t>
-  </si>
-  <si>
-    <t>Hemo0100</t>
-  </si>
-  <si>
-    <t>Hemo0219</t>
-  </si>
-  <si>
-    <t>Hemo0225</t>
-  </si>
-  <si>
-    <t>Hemo0226</t>
-  </si>
-  <si>
-    <t>Hemo0227</t>
-  </si>
-  <si>
-    <t>Hemo0239</t>
-  </si>
-  <si>
-    <t>Hemo0245</t>
-  </si>
-  <si>
-    <t>Hemo0258</t>
-  </si>
-  <si>
-    <t>Hemo0265</t>
-  </si>
-  <si>
-    <t>Hemo0269</t>
-  </si>
-  <si>
-    <t>Hemo0305</t>
-  </si>
-  <si>
-    <t>Hemo0308</t>
-  </si>
-  <si>
-    <t>Hemo0317</t>
-  </si>
-  <si>
-    <t>Hemo0327</t>
-  </si>
-  <si>
-    <t>Hemo0333</t>
-  </si>
-  <si>
-    <t>Hemo0338</t>
-  </si>
-  <si>
-    <t>Hemo0346</t>
-  </si>
-  <si>
-    <t>Hemo0361</t>
-  </si>
-  <si>
-    <t>Hemo0363</t>
-  </si>
-  <si>
-    <t>Hemo0373</t>
-  </si>
-  <si>
-    <t>Hemo0374</t>
-  </si>
-  <si>
-    <t>Hemo0383</t>
-  </si>
-  <si>
-    <t>Hemo0394</t>
-  </si>
-  <si>
-    <t>Hemo0398</t>
-  </si>
-  <si>
-    <t>Hemo0399</t>
-  </si>
-  <si>
-    <t>Hemo0401</t>
-  </si>
-  <si>
-    <t>Hemo0407</t>
-  </si>
-  <si>
-    <t>Hemo0411</t>
-  </si>
-  <si>
-    <t>Hemo0417</t>
-  </si>
-  <si>
-    <t>Hemo0421</t>
-  </si>
-  <si>
-    <t>Hemo0425</t>
-  </si>
-  <si>
-    <t>Hemo0438</t>
-  </si>
-  <si>
-    <t>Hemo0440</t>
-  </si>
-  <si>
-    <t>Hemo0450</t>
-  </si>
-  <si>
-    <t>Hemo0463</t>
-  </si>
-  <si>
-    <t>Hemo0465</t>
-  </si>
-  <si>
-    <t>Hemo0467</t>
-  </si>
-  <si>
-    <t>Hemo0483</t>
-  </si>
-  <si>
-    <t>Hemo0486</t>
-  </si>
-  <si>
-    <t>Hemo0488</t>
-  </si>
-  <si>
-    <t>Hemo0490</t>
-  </si>
-  <si>
-    <t>Hemo0497</t>
-  </si>
-  <si>
-    <t>Hemo0500</t>
-  </si>
-  <si>
-    <t>Hemo0517</t>
-  </si>
-  <si>
-    <t>Hemo0524</t>
-  </si>
-  <si>
-    <t>Hemo0525</t>
-  </si>
-  <si>
-    <t>Hemo0555</t>
-  </si>
-  <si>
-    <t>Hemo0559</t>
-  </si>
-  <si>
-    <t>Hemo0564</t>
-  </si>
-  <si>
-    <t>Hemo0576</t>
-  </si>
-  <si>
-    <t>Hemo0586</t>
-  </si>
-  <si>
-    <t>Hemo0588</t>
-  </si>
-  <si>
-    <t>Hemo0589</t>
-  </si>
-  <si>
-    <t>Hemo0603</t>
-  </si>
-  <si>
-    <t>Hemo0604</t>
-  </si>
-  <si>
-    <t>Hemo0605</t>
-  </si>
-  <si>
-    <t>Hemo0610</t>
-  </si>
-  <si>
-    <t>Hemo0615</t>
-  </si>
-  <si>
-    <t>Hemo0624</t>
-  </si>
-  <si>
-    <t>Hemo0625</t>
-  </si>
-  <si>
-    <t>Hemo0628</t>
-  </si>
-  <si>
-    <t>Hemo0653</t>
-  </si>
-  <si>
-    <t>Hemo0655</t>
-  </si>
-  <si>
-    <t>Hemo0657</t>
-  </si>
-  <si>
-    <t>Hemo0673</t>
-  </si>
-  <si>
-    <t>Hemo0676</t>
-  </si>
-  <si>
-    <t>Hemo0685</t>
-  </si>
-  <si>
-    <t>Hemo0708</t>
-  </si>
-  <si>
-    <t>Hemo0709</t>
-  </si>
-  <si>
-    <t>Hemo0711</t>
-  </si>
-  <si>
-    <t>Hemo0716</t>
-  </si>
-  <si>
-    <t>Hemo0726</t>
-  </si>
-  <si>
-    <t>Hemo0734</t>
-  </si>
-  <si>
-    <t>Hemo0740</t>
-  </si>
-  <si>
-    <t>Hemo0751</t>
-  </si>
-  <si>
-    <t>Hemo0768</t>
-  </si>
-  <si>
-    <t>Hemo0774</t>
-  </si>
-  <si>
-    <t>Hemo0781</t>
-  </si>
-  <si>
-    <t>Hemo0787</t>
-  </si>
-  <si>
-    <t>Hemo0813</t>
-  </si>
-  <si>
-    <t>Hemo0827</t>
-  </si>
-  <si>
-    <t>Hemo0892</t>
-  </si>
-  <si>
-    <t>Hemo0893</t>
-  </si>
-  <si>
-    <t>Hemo0930</t>
-  </si>
-  <si>
-    <t>Hemo0934</t>
-  </si>
-  <si>
-    <t>Hemo0957</t>
-  </si>
-  <si>
-    <t>Hemo0967</t>
-  </si>
-  <si>
-    <t>Hemo0968</t>
-  </si>
-  <si>
-    <t>Hemo0973</t>
-  </si>
-  <si>
-    <t>Hemo0975</t>
-  </si>
-  <si>
-    <t>Hemo0995</t>
-  </si>
-  <si>
-    <t>Hemo0999</t>
-  </si>
-  <si>
-    <t>Hemo1000</t>
-  </si>
-  <si>
-    <t>Hemo1002</t>
-  </si>
-  <si>
-    <t>Hemo1008</t>
-  </si>
-  <si>
-    <t>Hemo1013</t>
-  </si>
-  <si>
-    <t>Hemo1019</t>
-  </si>
-  <si>
-    <t>Hemo1020</t>
-  </si>
-  <si>
-    <t>Hemo1036</t>
-  </si>
-  <si>
-    <t>Hemo1039</t>
-  </si>
-  <si>
-    <t>Hemo1041</t>
-  </si>
-  <si>
-    <t>Hemo1043</t>
-  </si>
-  <si>
-    <t>Hemo1056</t>
-  </si>
-  <si>
-    <t>Hemo1070</t>
-  </si>
-  <si>
-    <t>Hemo1071</t>
-  </si>
-  <si>
-    <t>Hemo1075</t>
-  </si>
-  <si>
-    <t>Hemo1080</t>
-  </si>
-  <si>
-    <t>Hemo1085</t>
-  </si>
-  <si>
-    <t>Hemo0306</t>
-  </si>
-  <si>
-    <t>Hemo0311</t>
-  </si>
-  <si>
-    <t>Hemo1087</t>
-  </si>
-  <si>
-    <t>Hemo1088</t>
-  </si>
-  <si>
-    <t>Hemo1092</t>
-  </si>
-  <si>
-    <t>Hemo1095</t>
-  </si>
-  <si>
-    <t>Hemo1106</t>
-  </si>
-  <si>
-    <t>Hemo1108</t>
-  </si>
-  <si>
-    <t>Hemo1109</t>
-  </si>
-  <si>
-    <t>Hemo1112</t>
-  </si>
-  <si>
-    <t>Hemo1123</t>
-  </si>
-  <si>
-    <t>Hemo1125</t>
-  </si>
-  <si>
-    <t>Hemo1126</t>
-  </si>
-  <si>
-    <t>Hemo1130</t>
-  </si>
-  <si>
-    <t>Hemo1139</t>
-  </si>
-  <si>
-    <t>Hemo1146</t>
-  </si>
-  <si>
-    <t>Hemo1151</t>
-  </si>
-  <si>
-    <t>Hemo1152</t>
-  </si>
-  <si>
-    <t>Hemo1154</t>
-  </si>
-  <si>
-    <t>Hemo1158</t>
-  </si>
-  <si>
-    <t>Hemo1159</t>
-  </si>
-  <si>
-    <t>Hemo1160</t>
-  </si>
-  <si>
-    <t>Hemo1161</t>
-  </si>
-  <si>
-    <t>Hemo1163</t>
-  </si>
-  <si>
-    <t>Hemo1166</t>
-  </si>
-  <si>
-    <t>Hemo1176</t>
-  </si>
-  <si>
-    <t>Hemo1181</t>
-  </si>
-  <si>
-    <t>Hemo1228</t>
-  </si>
-  <si>
-    <t>Hemo1231</t>
-  </si>
-  <si>
-    <t>Hemo1237</t>
-  </si>
-  <si>
-    <t>Hemo1249</t>
-  </si>
-  <si>
-    <t>Hemo1255</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>随访1时间点</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -618,6 +128,491 @@
   </si>
   <si>
     <t>入院首次检查时间点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub002</t>
+  </si>
+  <si>
+    <t>sub003</t>
+  </si>
+  <si>
+    <t>sub004</t>
+  </si>
+  <si>
+    <t>sub005</t>
+  </si>
+  <si>
+    <t>sub006</t>
+  </si>
+  <si>
+    <t>sub007</t>
+  </si>
+  <si>
+    <t>sub008</t>
+  </si>
+  <si>
+    <t>sub009</t>
+  </si>
+  <si>
+    <t>sub010</t>
+  </si>
+  <si>
+    <t>sub011</t>
+  </si>
+  <si>
+    <t>sub012</t>
+  </si>
+  <si>
+    <t>sub013</t>
+  </si>
+  <si>
+    <t>sub014</t>
+  </si>
+  <si>
+    <t>sub015</t>
+  </si>
+  <si>
+    <t>sub016</t>
+  </si>
+  <si>
+    <t>sub017</t>
+  </si>
+  <si>
+    <t>sub018</t>
+  </si>
+  <si>
+    <t>sub019</t>
+  </si>
+  <si>
+    <t>sub020</t>
+  </si>
+  <si>
+    <t>sub021</t>
+  </si>
+  <si>
+    <t>sub022</t>
+  </si>
+  <si>
+    <t>sub023</t>
+  </si>
+  <si>
+    <t>sub024</t>
+  </si>
+  <si>
+    <t>sub025</t>
+  </si>
+  <si>
+    <t>sub026</t>
+  </si>
+  <si>
+    <t>sub027</t>
+  </si>
+  <si>
+    <t>sub028</t>
+  </si>
+  <si>
+    <t>sub029</t>
+  </si>
+  <si>
+    <t>sub030</t>
+  </si>
+  <si>
+    <t>sub031</t>
+  </si>
+  <si>
+    <t>sub032</t>
+  </si>
+  <si>
+    <t>sub033</t>
+  </si>
+  <si>
+    <t>sub034</t>
+  </si>
+  <si>
+    <t>sub035</t>
+  </si>
+  <si>
+    <t>sub036</t>
+  </si>
+  <si>
+    <t>sub037</t>
+  </si>
+  <si>
+    <t>sub038</t>
+  </si>
+  <si>
+    <t>sub039</t>
+  </si>
+  <si>
+    <t>sub040</t>
+  </si>
+  <si>
+    <t>sub041</t>
+  </si>
+  <si>
+    <t>sub042</t>
+  </si>
+  <si>
+    <t>sub043</t>
+  </si>
+  <si>
+    <t>sub044</t>
+  </si>
+  <si>
+    <t>sub045</t>
+  </si>
+  <si>
+    <t>sub046</t>
+  </si>
+  <si>
+    <t>sub047</t>
+  </si>
+  <si>
+    <t>sub048</t>
+  </si>
+  <si>
+    <t>sub049</t>
+  </si>
+  <si>
+    <t>sub050</t>
+  </si>
+  <si>
+    <t>sub051</t>
+  </si>
+  <si>
+    <t>sub052</t>
+  </si>
+  <si>
+    <t>sub053</t>
+  </si>
+  <si>
+    <t>sub054</t>
+  </si>
+  <si>
+    <t>sub055</t>
+  </si>
+  <si>
+    <t>sub056</t>
+  </si>
+  <si>
+    <t>sub057</t>
+  </si>
+  <si>
+    <t>sub058</t>
+  </si>
+  <si>
+    <t>sub059</t>
+  </si>
+  <si>
+    <t>sub060</t>
+  </si>
+  <si>
+    <t>sub061</t>
+  </si>
+  <si>
+    <t>sub062</t>
+  </si>
+  <si>
+    <t>sub063</t>
+  </si>
+  <si>
+    <t>sub064</t>
+  </si>
+  <si>
+    <t>sub065</t>
+  </si>
+  <si>
+    <t>sub066</t>
+  </si>
+  <si>
+    <t>sub067</t>
+  </si>
+  <si>
+    <t>sub068</t>
+  </si>
+  <si>
+    <t>sub069</t>
+  </si>
+  <si>
+    <t>sub070</t>
+  </si>
+  <si>
+    <t>sub071</t>
+  </si>
+  <si>
+    <t>sub072</t>
+  </si>
+  <si>
+    <t>sub073</t>
+  </si>
+  <si>
+    <t>sub074</t>
+  </si>
+  <si>
+    <t>sub075</t>
+  </si>
+  <si>
+    <t>sub076</t>
+  </si>
+  <si>
+    <t>sub077</t>
+  </si>
+  <si>
+    <t>sub078</t>
+  </si>
+  <si>
+    <t>sub079</t>
+  </si>
+  <si>
+    <t>sub080</t>
+  </si>
+  <si>
+    <t>sub081</t>
+  </si>
+  <si>
+    <t>sub082</t>
+  </si>
+  <si>
+    <t>sub083</t>
+  </si>
+  <si>
+    <t>sub084</t>
+  </si>
+  <si>
+    <t>sub085</t>
+  </si>
+  <si>
+    <t>sub086</t>
+  </si>
+  <si>
+    <t>sub087</t>
+  </si>
+  <si>
+    <t>sub088</t>
+  </si>
+  <si>
+    <t>sub089</t>
+  </si>
+  <si>
+    <t>sub090</t>
+  </si>
+  <si>
+    <t>sub091</t>
+  </si>
+  <si>
+    <t>sub092</t>
+  </si>
+  <si>
+    <t>sub093</t>
+  </si>
+  <si>
+    <t>sub094</t>
+  </si>
+  <si>
+    <t>sub095</t>
+  </si>
+  <si>
+    <t>sub096</t>
+  </si>
+  <si>
+    <t>sub097</t>
+  </si>
+  <si>
+    <t>sub098</t>
+  </si>
+  <si>
+    <t>sub099</t>
+  </si>
+  <si>
+    <t>sub100</t>
+  </si>
+  <si>
+    <t>sub101</t>
+  </si>
+  <si>
+    <t>sub102</t>
+  </si>
+  <si>
+    <t>sub103</t>
+  </si>
+  <si>
+    <t>sub104</t>
+  </si>
+  <si>
+    <t>sub105</t>
+  </si>
+  <si>
+    <t>sub106</t>
+  </si>
+  <si>
+    <t>sub107</t>
+  </si>
+  <si>
+    <t>sub108</t>
+  </si>
+  <si>
+    <t>sub109</t>
+  </si>
+  <si>
+    <t>sub110</t>
+  </si>
+  <si>
+    <t>sub111</t>
+  </si>
+  <si>
+    <t>sub112</t>
+  </si>
+  <si>
+    <t>sub113</t>
+  </si>
+  <si>
+    <t>sub114</t>
+  </si>
+  <si>
+    <t>sub115</t>
+  </si>
+  <si>
+    <t>sub116</t>
+  </si>
+  <si>
+    <t>sub117</t>
+  </si>
+  <si>
+    <t>sub118</t>
+  </si>
+  <si>
+    <t>sub119</t>
+  </si>
+  <si>
+    <t>sub120</t>
+  </si>
+  <si>
+    <t>sub121</t>
+  </si>
+  <si>
+    <t>sub122</t>
+  </si>
+  <si>
+    <t>sub123</t>
+  </si>
+  <si>
+    <t>sub124</t>
+  </si>
+  <si>
+    <t>sub125</t>
+  </si>
+  <si>
+    <t>sub126</t>
+  </si>
+  <si>
+    <t>sub127</t>
+  </si>
+  <si>
+    <t>sub128</t>
+  </si>
+  <si>
+    <t>sub129</t>
+  </si>
+  <si>
+    <t>sub130</t>
+  </si>
+  <si>
+    <t>sub131</t>
+  </si>
+  <si>
+    <t>sub132</t>
+  </si>
+  <si>
+    <t>sub133</t>
+  </si>
+  <si>
+    <t>sub134</t>
+  </si>
+  <si>
+    <t>sub135</t>
+  </si>
+  <si>
+    <t>sub136</t>
+  </si>
+  <si>
+    <t>sub137</t>
+  </si>
+  <si>
+    <t>sub138</t>
+  </si>
+  <si>
+    <t>sub139</t>
+  </si>
+  <si>
+    <t>sub140</t>
+  </si>
+  <si>
+    <t>sub141</t>
+  </si>
+  <si>
+    <t>sub142</t>
+  </si>
+  <si>
+    <t>sub143</t>
+  </si>
+  <si>
+    <t>sub144</t>
+  </si>
+  <si>
+    <t>sub145</t>
+  </si>
+  <si>
+    <t>sub146</t>
+  </si>
+  <si>
+    <t>sub147</t>
+  </si>
+  <si>
+    <t>sub148</t>
+  </si>
+  <si>
+    <t>sub149</t>
+  </si>
+  <si>
+    <t>sub150</t>
+  </si>
+  <si>
+    <t>sub151</t>
+  </si>
+  <si>
+    <t>sub152</t>
+  </si>
+  <si>
+    <t>sub153</t>
+  </si>
+  <si>
+    <t>sub154</t>
+  </si>
+  <si>
+    <t>sub155</t>
+  </si>
+  <si>
+    <t>sub156</t>
+  </si>
+  <si>
+    <t>sub157</t>
+  </si>
+  <si>
+    <t>sub158</t>
+  </si>
+  <si>
+    <t>sub159</t>
+  </si>
+  <si>
+    <t>sub160</t>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +623,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,19 +648,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -682,7 +678,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,15 +697,7 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1024,140 +1012,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE96EE7-2E97-4F05-B76D-E4CAC02A7FF5}">
-  <dimension ref="A1:DD163"/>
+  <dimension ref="A1:DD161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="20.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="20.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
-    <col min="10" max="10" width="20.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.625" customWidth="1"/>
-    <col min="12" max="12" width="20.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="20.625" customWidth="1"/>
-    <col min="14" max="14" width="20.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.625" customWidth="1"/>
-    <col min="16" max="16" width="20.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="20.625" customWidth="1"/>
-    <col min="18" max="18" width="20.625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="20.625" customWidth="1"/>
-    <col min="20" max="20" width="20.625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="20.625" customWidth="1"/>
-    <col min="22" max="22" width="20.625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="20.625" customWidth="1"/>
-    <col min="24" max="24" width="20.625" style="2" customWidth="1"/>
-    <col min="25" max="25" width="20.625" customWidth="1"/>
-    <col min="26" max="26" width="20.625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="20.625" customWidth="1"/>
-    <col min="28" max="28" width="20.625" style="2" customWidth="1"/>
-    <col min="29" max="30" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="20.6640625" customWidth="1"/>
+    <col min="22" max="22" width="20.6640625" style="2" customWidth="1"/>
+    <col min="23" max="23" width="20.6640625" customWidth="1"/>
+    <col min="24" max="24" width="20.6640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="20.6640625" customWidth="1"/>
+    <col min="26" max="26" width="20.6640625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="20.6640625" customWidth="1"/>
+    <col min="28" max="28" width="20.6640625" style="2" customWidth="1"/>
+    <col min="29" max="30" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>162</v>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>164</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>166</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="K1" t="s">
-        <v>169</v>
+        <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="M1" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="O1" t="s">
-        <v>173</v>
+        <v>10</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="Q1" t="s">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>176</v>
+        <v>13</v>
       </c>
       <c r="S1" t="s">
-        <v>177</v>
+        <v>14</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="U1" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>180</v>
+        <v>17</v>
       </c>
       <c r="W1" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="Y1" t="s">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="AA1" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>186</v>
+        <v>23</v>
       </c>
       <c r="AC1" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1197,9 +1183,9 @@
       <c r="AC2" s="1"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1239,9 +1225,9 @@
       <c r="AC3" s="1"/>
       <c r="AK3" s="1"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1267,9 +1253,9 @@
       <c r="M4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1302,9 +1288,9 @@
       <c r="U5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1330,9 +1316,9 @@
       <c r="M6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -1372,9 +1358,9 @@
       <c r="AC7" s="1"/>
       <c r="AK7" s="1"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1427,9 +1413,9 @@
       <c r="AS8" s="1"/>
       <c r="BA8" s="1"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1462,9 +1448,9 @@
       <c r="U9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1490,9 +1476,9 @@
       <c r="M10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -1532,9 +1518,9 @@
       <c r="AC11" s="1"/>
       <c r="AK11" s="1"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1560,9 +1546,9 @@
       <c r="M12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -1615,9 +1601,9 @@
       <c r="AS13" s="1"/>
       <c r="BA13" s="1"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1657,9 +1643,9 @@
       <c r="AC14" s="1"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1685,9 +1671,9 @@
       <c r="M15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1720,9 +1706,9 @@
       <c r="U16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1748,9 +1734,9 @@
       <c r="M17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B18">
         <v>4</v>
@@ -1783,9 +1769,9 @@
       <c r="U18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B19">
         <v>4</v>
@@ -1818,9 +1804,9 @@
       <c r="U19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -1866,9 +1852,9 @@
       <c r="AK20" s="1"/>
       <c r="AS20" s="1"/>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B21">
         <v>5</v>
@@ -1908,9 +1894,9 @@
       <c r="AC21" s="1"/>
       <c r="AK21" s="1"/>
     </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1943,9 +1929,9 @@
       <c r="U22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
+    <row r="23" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1971,9 +1957,9 @@
       <c r="M23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>22</v>
+    <row r="24" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B24">
         <v>7</v>
@@ -2026,9 +2012,9 @@
       <c r="AS24" s="1"/>
       <c r="BA24" s="1"/>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>23</v>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -2061,9 +2047,9 @@
       <c r="U25" s="1"/>
       <c r="AC25" s="1"/>
     </row>
-    <row r="26" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>24</v>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -2089,9 +2075,9 @@
       <c r="M26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -2124,9 +2110,9 @@
       <c r="U27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>26</v>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -2159,9 +2145,9 @@
       <c r="U28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>27</v>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -2201,9 +2187,9 @@
       <c r="AC29" s="1"/>
       <c r="AK29" s="1"/>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>28</v>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -2236,9 +2222,9 @@
       <c r="U30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>29</v>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -2278,9 +2264,9 @@
       <c r="AC31" s="1"/>
       <c r="AK31" s="1"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>30</v>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -2306,9 +2292,9 @@
       <c r="M32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>31</v>
+    <row r="33" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -2334,9 +2320,9 @@
       <c r="M33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>32</v>
+    <row r="34" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -2382,9 +2368,9 @@
       <c r="AK34" s="1"/>
       <c r="AS34" s="1"/>
     </row>
-    <row r="35" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>33</v>
+    <row r="35" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -2417,9 +2403,9 @@
       <c r="U35" s="1"/>
       <c r="AC35" s="1"/>
     </row>
-    <row r="36" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>34</v>
+    <row r="36" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -2465,9 +2451,9 @@
       <c r="AK36" s="1"/>
       <c r="AS36" s="1"/>
     </row>
-    <row r="37" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>35</v>
+    <row r="37" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -2507,9 +2493,9 @@
       <c r="AC37" s="1"/>
       <c r="AK37" s="1"/>
     </row>
-    <row r="38" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>36</v>
+    <row r="38" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -2549,9 +2535,9 @@
       <c r="AC38" s="1"/>
       <c r="AK38" s="1"/>
     </row>
-    <row r="39" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>37</v>
+    <row r="39" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -2591,9 +2577,9 @@
       <c r="AC39" s="1"/>
       <c r="AK39" s="1"/>
     </row>
-    <row r="40" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>38</v>
+    <row r="40" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B40">
         <v>7</v>
@@ -2646,9 +2632,9 @@
       <c r="AS40" s="1"/>
       <c r="BA40" s="1"/>
     </row>
-    <row r="41" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>39</v>
+    <row r="41" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -2694,9 +2680,9 @@
       <c r="AK41" s="1"/>
       <c r="AS41" s="1"/>
     </row>
-    <row r="42" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>40</v>
+    <row r="42" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -2729,9 +2715,9 @@
       <c r="U42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>41</v>
+    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -2764,9 +2750,9 @@
       <c r="U43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>42</v>
+    <row r="44" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -2799,9 +2785,9 @@
       <c r="U44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>43</v>
+    <row r="45" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -2847,9 +2833,9 @@
       <c r="AK45" s="1"/>
       <c r="AS45" s="1"/>
     </row>
-    <row r="46" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>44</v>
+    <row r="46" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -2882,9 +2868,9 @@
       <c r="U46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>45</v>
+    <row r="47" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -2910,9 +2896,9 @@
       <c r="M47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>46</v>
+    <row r="48" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -2945,9 +2931,9 @@
       <c r="U48" s="1"/>
       <c r="AC48" s="1"/>
     </row>
-    <row r="49" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>47</v>
+    <row r="49" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -2980,9 +2966,9 @@
       <c r="U49" s="1"/>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>48</v>
+    <row r="50" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -3015,9 +3001,9 @@
       <c r="U50" s="1"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>49</v>
+    <row r="51" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -3043,9 +3029,9 @@
       <c r="M51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>50</v>
+    <row r="52" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -3085,9 +3071,9 @@
       <c r="AC52" s="1"/>
       <c r="AK52" s="1"/>
     </row>
-    <row r="53" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>51</v>
+    <row r="53" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -3133,9 +3119,9 @@
       <c r="AK53" s="1"/>
       <c r="AS53" s="1"/>
     </row>
-    <row r="54" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>52</v>
+    <row r="54" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B54">
         <v>4</v>
@@ -3168,9 +3154,9 @@
       <c r="U54" s="1"/>
       <c r="AC54" s="1"/>
     </row>
-    <row r="55" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>53</v>
+    <row r="55" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B55">
         <v>4</v>
@@ -3203,9 +3189,9 @@
       <c r="U55" s="1"/>
       <c r="AC55" s="1"/>
     </row>
-    <row r="56" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>54</v>
+    <row r="56" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -3231,9 +3217,9 @@
       <c r="M56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>55</v>
+    <row r="57" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B57">
         <v>9</v>
@@ -3300,9 +3286,9 @@
       <c r="BI57" s="1"/>
       <c r="BQ57" s="1"/>
     </row>
-    <row r="58" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>56</v>
+    <row r="58" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -3328,9 +3314,9 @@
       <c r="M58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>57</v>
+    <row r="59" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -3356,9 +3342,9 @@
       <c r="M59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>58</v>
+    <row r="60" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="B60">
         <v>3</v>
@@ -3384,9 +3370,9 @@
       <c r="M60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>59</v>
+    <row r="61" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="B61">
         <v>13</v>
@@ -3549,9 +3535,9 @@
         <v>20181202000350</v>
       </c>
     </row>
-    <row r="62" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>60</v>
+    <row r="62" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -3597,9 +3583,9 @@
       <c r="AK62" s="1"/>
       <c r="AS62" s="1"/>
     </row>
-    <row r="63" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>61</v>
+    <row r="63" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B63">
         <v>3</v>
@@ -3625,9 +3611,9 @@
       <c r="M63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:108" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>62</v>
+    <row r="64" spans="1:108" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="B64">
         <v>8</v>
@@ -3687,9 +3673,9 @@
       <c r="BA64" s="1"/>
       <c r="BI64" s="1"/>
     </row>
-    <row r="65" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>63</v>
+    <row r="65" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -3735,9 +3721,9 @@
       <c r="AK65" s="1"/>
       <c r="AS65" s="1"/>
     </row>
-    <row r="66" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>64</v>
+    <row r="66" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B66">
         <v>4</v>
@@ -3770,9 +3756,9 @@
       <c r="U66" s="1"/>
       <c r="AC66" s="1"/>
     </row>
-    <row r="67" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>65</v>
+    <row r="67" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -3812,9 +3798,9 @@
       <c r="AC67" s="1"/>
       <c r="AK67" s="1"/>
     </row>
-    <row r="68" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>66</v>
+    <row r="68" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -3840,9 +3826,9 @@
       <c r="M68" s="1"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>67</v>
+    <row r="69" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>96</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -3902,9 +3888,9 @@
       <c r="BA69" s="1"/>
       <c r="BI69" s="1"/>
     </row>
-    <row r="70" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>68</v>
+    <row r="70" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -3944,9 +3930,9 @@
       <c r="AC70" s="1"/>
       <c r="AK70" s="1"/>
     </row>
-    <row r="71" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>69</v>
+    <row r="71" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="B71">
         <v>3</v>
@@ -3972,9 +3958,9 @@
       <c r="M71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>70</v>
+    <row r="72" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4020,9 +4006,9 @@
       <c r="AK72" s="1"/>
       <c r="AS72" s="1"/>
     </row>
-    <row r="73" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>71</v>
+    <row r="73" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -4048,9 +4034,9 @@
       <c r="M73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>72</v>
+    <row r="74" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -4076,9 +4062,9 @@
       <c r="M74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>73</v>
+    <row r="75" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -4124,9 +4110,9 @@
       <c r="AK75" s="1"/>
       <c r="AS75" s="1"/>
     </row>
-    <row r="76" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>74</v>
+    <row r="76" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -4166,9 +4152,9 @@
       <c r="AC76" s="1"/>
       <c r="AK76" s="1"/>
     </row>
-    <row r="77" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>75</v>
+    <row r="77" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -4208,9 +4194,9 @@
       <c r="AC77" s="1"/>
       <c r="AK77" s="1"/>
     </row>
-    <row r="78" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>76</v>
+    <row r="78" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -4250,9 +4236,9 @@
       <c r="AC78" s="1"/>
       <c r="AK78" s="1"/>
     </row>
-    <row r="79" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>77</v>
+    <row r="79" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -4278,9 +4264,9 @@
       <c r="M79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>78</v>
+    <row r="80" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4320,9 +4306,9 @@
       <c r="AC80" s="1"/>
       <c r="AK80" s="1"/>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>79</v>
+    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -4348,9 +4334,9 @@
       <c r="M81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>80</v>
+    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -4390,9 +4376,9 @@
       <c r="AC82" s="1"/>
       <c r="AK82" s="1"/>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>81</v>
+    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="B83">
         <v>3</v>
@@ -4418,9 +4404,9 @@
       <c r="M83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>82</v>
+    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="B84">
         <v>3</v>
@@ -4446,9 +4432,9 @@
       <c r="M84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>83</v>
+    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4488,9 +4474,9 @@
       <c r="AC85" s="1"/>
       <c r="AK85" s="1"/>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>84</v>
+    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4536,9 +4522,9 @@
       <c r="AK86" s="1"/>
       <c r="AS86" s="1"/>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>85</v>
+    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="B87">
         <v>4</v>
@@ -4571,9 +4557,9 @@
       <c r="U87" s="1"/>
       <c r="AC87" s="1"/>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>86</v>
+    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4613,9 +4599,9 @@
       <c r="AC88" s="1"/>
       <c r="AK88" s="1"/>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>87</v>
+    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="B89">
         <v>3</v>
@@ -4641,9 +4627,9 @@
       <c r="M89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>88</v>
+    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -4676,9 +4662,9 @@
       <c r="U90" s="1"/>
       <c r="AC90" s="1"/>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>89</v>
+    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="B91">
         <v>4</v>
@@ -4711,9 +4697,9 @@
       <c r="U91" s="1"/>
       <c r="AC91" s="1"/>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>90</v>
+    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="B92">
         <v>4</v>
@@ -4746,9 +4732,9 @@
       <c r="U92" s="1"/>
       <c r="AC92" s="1"/>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>91</v>
+    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B93">
         <v>4</v>
@@ -4781,9 +4767,9 @@
       <c r="U93" s="1"/>
       <c r="AC93" s="1"/>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>92</v>
+    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4823,9 +4809,9 @@
       <c r="AC94" s="1"/>
       <c r="AK94" s="1"/>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>93</v>
+    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4865,9 +4851,9 @@
       <c r="AC95" s="1"/>
       <c r="AK95" s="1"/>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>94</v>
+    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -4907,9 +4893,9 @@
       <c r="AC96" s="1"/>
       <c r="AK96" s="1"/>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>95</v>
+    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="B97">
         <v>6</v>
@@ -4955,9 +4941,9 @@
       <c r="AK97" s="1"/>
       <c r="AS97" s="1"/>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>96</v>
+    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -4983,9 +4969,9 @@
       <c r="M98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>97</v>
+    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5025,9 +5011,9 @@
       <c r="AC99" s="1"/>
       <c r="AK99" s="1"/>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>98</v>
+    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -5053,9 +5039,9 @@
       <c r="M100" s="1"/>
       <c r="U100" s="1"/>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>99</v>
+    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -5081,9 +5067,9 @@
       <c r="M101" s="1"/>
       <c r="U101" s="1"/>
     </row>
-    <row r="102" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>100</v>
+    <row r="102" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="B102" s="3">
         <v>3</v>
@@ -5119,9 +5105,9 @@
       <c r="Z102" s="5"/>
       <c r="AB102" s="5"/>
     </row>
-    <row r="103" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3" t="s">
-        <v>101</v>
+    <row r="103" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B103" s="3">
         <v>3</v>
@@ -5157,9 +5143,9 @@
       <c r="Z103" s="5"/>
       <c r="AB103" s="5"/>
     </row>
-    <row r="104" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
-        <v>102</v>
+    <row r="104" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="B104" s="3">
         <v>3</v>
@@ -5195,9 +5181,9 @@
       <c r="Z104" s="5"/>
       <c r="AB104" s="5"/>
     </row>
-    <row r="105" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3" t="s">
-        <v>103</v>
+    <row r="105" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>132</v>
       </c>
       <c r="B105" s="3">
         <v>3</v>
@@ -5233,9 +5219,9 @@
       <c r="Z105" s="5"/>
       <c r="AB105" s="5"/>
     </row>
-    <row r="106" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>104</v>
+    <row r="106" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="B106" s="3">
         <v>3</v>
@@ -5271,9 +5257,9 @@
       <c r="Z106" s="5"/>
       <c r="AB106" s="5"/>
     </row>
-    <row r="107" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3" t="s">
-        <v>105</v>
+    <row r="107" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="B107" s="3">
         <v>3</v>
@@ -5309,9 +5295,9 @@
       <c r="Z107" s="5"/>
       <c r="AB107" s="5"/>
     </row>
-    <row r="108" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>106</v>
+    <row r="108" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="B108" s="3">
         <v>3</v>
@@ -5347,9 +5333,9 @@
       <c r="Z108" s="5"/>
       <c r="AB108" s="5"/>
     </row>
-    <row r="109" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="3" t="s">
-        <v>107</v>
+    <row r="109" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="B109" s="3">
         <v>3</v>
@@ -5385,9 +5371,9 @@
       <c r="Z109" s="5"/>
       <c r="AB109" s="5"/>
     </row>
-    <row r="110" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>108</v>
+    <row r="110" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="B110" s="3">
         <v>3</v>
@@ -5423,9 +5409,9 @@
       <c r="Z110" s="5"/>
       <c r="AB110" s="5"/>
     </row>
-    <row r="111" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>109</v>
+    <row r="111" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="B111" s="3">
         <v>3</v>
@@ -5461,9 +5447,9 @@
       <c r="Z111" s="5"/>
       <c r="AB111" s="5"/>
     </row>
-    <row r="112" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>110</v>
+    <row r="112" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="B112" s="3">
         <v>3</v>
@@ -5499,9 +5485,9 @@
       <c r="Z112" s="5"/>
       <c r="AB112" s="5"/>
     </row>
-    <row r="113" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>111</v>
+    <row r="113" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B113" s="3">
         <v>3</v>
@@ -5537,9 +5523,9 @@
       <c r="Z113" s="5"/>
       <c r="AB113" s="5"/>
     </row>
-    <row r="114" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>112</v>
+    <row r="114" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B114" s="3">
         <v>3</v>
@@ -5575,9 +5561,9 @@
       <c r="Z114" s="5"/>
       <c r="AB114" s="5"/>
     </row>
-    <row r="115" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3" t="s">
-        <v>113</v>
+    <row r="115" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>142</v>
       </c>
       <c r="B115" s="3">
         <v>3</v>
@@ -5613,9 +5599,9 @@
       <c r="Z115" s="5"/>
       <c r="AB115" s="5"/>
     </row>
-    <row r="116" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>114</v>
+    <row r="116" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B116" s="3">
         <v>3</v>
@@ -5651,9 +5637,9 @@
       <c r="Z116" s="5"/>
       <c r="AB116" s="5"/>
     </row>
-    <row r="117" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
-        <v>115</v>
+    <row r="117" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>144</v>
       </c>
       <c r="B117" s="3">
         <v>3</v>
@@ -5689,9 +5675,9 @@
       <c r="Z117" s="5"/>
       <c r="AB117" s="5"/>
     </row>
-    <row r="118" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>116</v>
+    <row r="118" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="B118" s="3">
         <v>3</v>
@@ -5727,9 +5713,9 @@
       <c r="Z118" s="5"/>
       <c r="AB118" s="5"/>
     </row>
-    <row r="119" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="3" t="s">
-        <v>117</v>
+    <row r="119" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="B119" s="3">
         <v>3</v>
@@ -5765,9 +5751,9 @@
       <c r="Z119" s="5"/>
       <c r="AB119" s="5"/>
     </row>
-    <row r="120" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>118</v>
+    <row r="120" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="B120" s="3">
         <v>3</v>
@@ -5803,9 +5789,9 @@
       <c r="Z120" s="5"/>
       <c r="AB120" s="5"/>
     </row>
-    <row r="121" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
-        <v>119</v>
+    <row r="121" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="B121" s="3">
         <v>3</v>
@@ -5841,9 +5827,9 @@
       <c r="Z121" s="5"/>
       <c r="AB121" s="5"/>
     </row>
-    <row r="122" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>120</v>
+    <row r="122" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="B122" s="3">
         <v>3</v>
@@ -5879,9 +5865,9 @@
       <c r="Z122" s="5"/>
       <c r="AB122" s="5"/>
     </row>
-    <row r="123" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="3" t="s">
-        <v>121</v>
+    <row r="123" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="B123" s="3">
         <v>3</v>
@@ -5917,9 +5903,9 @@
       <c r="Z123" s="5"/>
       <c r="AB123" s="5"/>
     </row>
-    <row r="124" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>122</v>
+    <row r="124" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="B124" s="3">
         <v>3</v>
@@ -5955,9 +5941,9 @@
       <c r="Z124" s="5"/>
       <c r="AB124" s="5"/>
     </row>
-    <row r="125" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>123</v>
+    <row r="125" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>152</v>
       </c>
       <c r="B125" s="3">
         <v>3</v>
@@ -5993,9 +5979,9 @@
       <c r="Z125" s="5"/>
       <c r="AB125" s="5"/>
     </row>
-    <row r="126" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>124</v>
+    <row r="126" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="B126" s="3">
         <v>3</v>
@@ -6031,9 +6017,9 @@
       <c r="Z126" s="5"/>
       <c r="AB126" s="5"/>
     </row>
-    <row r="127" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>125</v>
+    <row r="127" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="B127" s="3">
         <v>3</v>
@@ -6069,9 +6055,9 @@
       <c r="Z127" s="5"/>
       <c r="AB127" s="5"/>
     </row>
-    <row r="128" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
-        <v>126</v>
+    <row r="128" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B128" s="3">
         <v>3</v>
@@ -6107,9 +6093,9 @@
       <c r="Z128" s="5"/>
       <c r="AB128" s="5"/>
     </row>
-    <row r="129" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="3" t="s">
-        <v>127</v>
+    <row r="129" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B129" s="3">
         <v>3</v>
@@ -6145,9 +6131,9 @@
       <c r="Z129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>128</v>
+    <row r="130" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="B130" s="3">
         <v>3</v>
@@ -6183,9 +6169,9 @@
       <c r="Z130" s="5"/>
       <c r="AB130" s="5"/>
     </row>
-    <row r="131" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="3" t="s">
-        <v>129</v>
+    <row r="131" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="B131" s="3">
         <v>3</v>
@@ -6221,9 +6207,9 @@
       <c r="Z131" s="5"/>
       <c r="AB131" s="5"/>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>130</v>
+    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -6242,9 +6228,9 @@
       </c>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>131</v>
+    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -6263,9 +6249,9 @@
       </c>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>132</v>
+    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="B134">
         <v>5</v>
@@ -6305,9 +6291,9 @@
       <c r="AC134" s="1"/>
       <c r="AK134" s="1"/>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>133</v>
+    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="B135">
         <v>3</v>
@@ -6333,9 +6319,9 @@
       <c r="M135" s="1"/>
       <c r="U135" s="1"/>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>134</v>
+    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -6375,9 +6361,9 @@
       <c r="AC136" s="1"/>
       <c r="AK136" s="1"/>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>135</v>
+    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -6410,9 +6396,9 @@
       <c r="U137" s="1"/>
       <c r="AC137" s="1"/>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>136</v>
+    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="B138">
         <v>3</v>
@@ -6438,9 +6424,9 @@
       <c r="M138" s="1"/>
       <c r="U138" s="1"/>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>137</v>
+    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -6473,9 +6459,9 @@
       <c r="U139" s="1"/>
       <c r="AC139" s="1"/>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>138</v>
+    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -6515,9 +6501,9 @@
       <c r="AC140" s="1"/>
       <c r="AK140" s="1"/>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>139</v>
+    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -6550,723 +6536,674 @@
       <c r="U141" s="1"/>
       <c r="AC141" s="1"/>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B142" s="6">
-        <v>1</v>
-      </c>
-      <c r="C142" s="7">
-        <v>44078.734942129631</v>
-      </c>
-      <c r="D142" s="8">
-        <v>20200904002479</v>
-      </c>
-    </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>141</v>
+        <v>169</v>
+      </c>
+      <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142" s="1">
+        <v>44023.971203703702</v>
+      </c>
+      <c r="D142" s="2">
+        <v>20200711001264</v>
+      </c>
+      <c r="E142" s="1">
+        <v>44025.460289351853</v>
+      </c>
+      <c r="F142" s="2">
+        <v>20200713000955</v>
+      </c>
+      <c r="G142" s="1">
+        <v>44028.42523148148</v>
+      </c>
+      <c r="H142" s="2">
+        <v>20200716000801</v>
+      </c>
+      <c r="M142" s="1"/>
+      <c r="U142" s="1"/>
+    </row>
+    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C143" s="1">
-        <v>44023.971203703702</v>
+        <v>43932.297037037039</v>
       </c>
       <c r="D143" s="2">
-        <v>20200711001264</v>
+        <v>20200411000014</v>
       </c>
       <c r="E143" s="1">
-        <v>44025.460289351853</v>
+        <v>43932.663252314815</v>
       </c>
       <c r="F143" s="2">
-        <v>20200713000955</v>
+        <v>20200411000849</v>
       </c>
       <c r="G143" s="1">
-        <v>44028.42523148148</v>
+        <v>43933.751979166664</v>
       </c>
       <c r="H143" s="2">
-        <v>20200716000801</v>
+        <v>20200412000321</v>
+      </c>
+      <c r="I143" s="1">
+        <v>43939.618483796294</v>
+      </c>
+      <c r="J143" s="2">
+        <v>20200418000825</v>
+      </c>
+      <c r="K143" s="1">
+        <v>43944.366585648146</v>
+      </c>
+      <c r="L143" s="2">
+        <v>20200423000430</v>
       </c>
       <c r="M143" s="1"/>
       <c r="U143" s="1"/>
-    </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>142</v>
+      <c r="AC143" s="1"/>
+      <c r="AK143" s="1"/>
+    </row>
+    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
       <c r="C144" s="1">
-        <v>43932.297037037039</v>
+        <v>43875.774247685185</v>
       </c>
       <c r="D144" s="2">
-        <v>20200411000014</v>
+        <v>20200214000572</v>
       </c>
       <c r="E144" s="1">
-        <v>43932.663252314815</v>
+        <v>43876.606944444444</v>
       </c>
       <c r="F144" s="2">
-        <v>20200411000849</v>
+        <v>20200215000245</v>
       </c>
       <c r="G144" s="1">
-        <v>43933.751979166664</v>
+        <v>43878.411435185182</v>
       </c>
       <c r="H144" s="2">
-        <v>20200412000321</v>
+        <v>20200217000253</v>
       </c>
       <c r="I144" s="1">
-        <v>43939.618483796294</v>
+        <v>43880.60119212963</v>
       </c>
       <c r="J144" s="2">
-        <v>20200418000825</v>
+        <v>20200219000526</v>
       </c>
       <c r="K144" s="1">
-        <v>43944.366585648146</v>
+        <v>43892.616840277777</v>
       </c>
       <c r="L144" s="2">
-        <v>20200423000430</v>
+        <v>20200302001020</v>
       </c>
       <c r="M144" s="1"/>
       <c r="U144" s="1"/>
       <c r="AC144" s="1"/>
       <c r="AK144" s="1"/>
     </row>
-    <row r="145" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>143</v>
+    <row r="145" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="B145">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" s="1">
-        <v>43875.774247685185</v>
+        <v>43854.363981481481</v>
       </c>
       <c r="D145" s="2">
-        <v>20200214000572</v>
+        <v>20200124000041</v>
       </c>
       <c r="E145" s="1">
-        <v>43876.606944444444</v>
+        <v>43855.445208333331</v>
       </c>
       <c r="F145" s="2">
-        <v>20200215000245</v>
+        <v>20200125000095</v>
       </c>
       <c r="G145" s="1">
-        <v>43878.411435185182</v>
+        <v>43858.405150462961</v>
       </c>
       <c r="H145" s="2">
-        <v>20200217000253</v>
+        <v>20200128000132</v>
       </c>
       <c r="I145" s="1">
-        <v>43880.60119212963</v>
+        <v>43867.632071759261</v>
       </c>
       <c r="J145" s="2">
-        <v>20200219000526</v>
+        <v>20200206000053</v>
       </c>
       <c r="K145" s="1">
-        <v>43892.616840277777</v>
+        <v>43880.444097222222</v>
       </c>
       <c r="L145" s="2">
-        <v>20200302001020</v>
-      </c>
-      <c r="M145" s="1"/>
+        <v>20200219000215</v>
+      </c>
+      <c r="M145" s="1">
+        <v>44190.444710648146</v>
+      </c>
+      <c r="N145" s="2">
+        <v>20201225001177</v>
+      </c>
       <c r="U145" s="1"/>
       <c r="AC145" s="1"/>
       <c r="AK145" s="1"/>
-    </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>144</v>
+      <c r="AS145" s="1"/>
+    </row>
+    <row r="146" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146" s="1">
+        <v>43995.797789351855</v>
+      </c>
+      <c r="D146" s="2">
+        <v>20200613001086</v>
+      </c>
+      <c r="E146" s="1">
+        <v>43997.422361111108</v>
+      </c>
+      <c r="F146" s="2">
+        <v>20200615000439</v>
+      </c>
+      <c r="G146" s="1">
+        <v>44003.349340277775</v>
+      </c>
+      <c r="H146" s="2">
+        <v>20200621000050</v>
+      </c>
+      <c r="M146" s="1"/>
+      <c r="U146" s="1"/>
+    </row>
+    <row r="147" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B147">
         <v>6</v>
       </c>
-      <c r="C146" s="1">
-        <v>43854.363981481481</v>
-      </c>
-      <c r="D146" s="2">
-        <v>20200124000041</v>
-      </c>
-      <c r="E146" s="1">
-        <v>43855.445208333331</v>
-      </c>
-      <c r="F146" s="2">
-        <v>20200125000095</v>
-      </c>
-      <c r="G146" s="1">
-        <v>43858.405150462961</v>
-      </c>
-      <c r="H146" s="2">
-        <v>20200128000132</v>
-      </c>
-      <c r="I146" s="1">
-        <v>43867.632071759261</v>
-      </c>
-      <c r="J146" s="2">
-        <v>20200206000053</v>
-      </c>
-      <c r="K146" s="1">
-        <v>43880.444097222222</v>
-      </c>
-      <c r="L146" s="2">
-        <v>20200219000215</v>
-      </c>
-      <c r="M146" s="1">
-        <v>44190.444710648146</v>
-      </c>
-      <c r="N146" s="2">
-        <v>20201225001177</v>
-      </c>
-      <c r="U146" s="1"/>
-      <c r="AC146" s="1"/>
-      <c r="AK146" s="1"/>
-      <c r="AS146" s="1"/>
-    </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>3</v>
-      </c>
       <c r="C147" s="1">
-        <v>43995.797789351855</v>
+        <v>43982.543495370373</v>
       </c>
       <c r="D147" s="2">
-        <v>20200613001086</v>
+        <v>20200531000253</v>
       </c>
       <c r="E147" s="1">
-        <v>43997.422361111108</v>
+        <v>43982.804247685184</v>
       </c>
       <c r="F147" s="2">
-        <v>20200615000439</v>
+        <v>20200531000441</v>
       </c>
       <c r="G147" s="1">
-        <v>44003.349340277775</v>
+        <v>43983.382893518516</v>
       </c>
       <c r="H147" s="2">
-        <v>20200621000050</v>
-      </c>
-      <c r="M147" s="1"/>
+        <v>20200601000527</v>
+      </c>
+      <c r="I147" s="1">
+        <v>43990.34233796296</v>
+      </c>
+      <c r="J147" s="2">
+        <v>20200608000106</v>
+      </c>
+      <c r="K147" s="1">
+        <v>44001.351909722223</v>
+      </c>
+      <c r="L147" s="2">
+        <v>20200619000252</v>
+      </c>
+      <c r="M147" s="1">
+        <v>44043.395219907405</v>
+      </c>
+      <c r="N147" s="2">
+        <v>20200731000709</v>
+      </c>
       <c r="U147" s="1"/>
-    </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>146</v>
+      <c r="AC147" s="1"/>
+      <c r="AK147" s="1"/>
+      <c r="AS147" s="1"/>
+    </row>
+    <row r="148" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="B148">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C148" s="1">
-        <v>43982.543495370373</v>
+        <v>44185.418796296297</v>
       </c>
       <c r="D148" s="2">
-        <v>20200531000253</v>
+        <v>20201220000155</v>
       </c>
       <c r="E148" s="1">
-        <v>43982.804247685184</v>
+        <v>44185.775590277779</v>
       </c>
       <c r="F148" s="2">
-        <v>20200531000441</v>
+        <v>20201220000450</v>
       </c>
       <c r="G148" s="1">
-        <v>43983.382893518516</v>
+        <v>44186.371087962965</v>
       </c>
       <c r="H148" s="2">
-        <v>20200601000527</v>
+        <v>20201221000155</v>
       </c>
       <c r="I148" s="1">
-        <v>43990.34233796296</v>
+        <v>44188.361493055556</v>
       </c>
       <c r="J148" s="2">
-        <v>20200608000106</v>
-      </c>
-      <c r="K148" s="1">
-        <v>44001.351909722223</v>
-      </c>
-      <c r="L148" s="2">
-        <v>20200619000252</v>
-      </c>
-      <c r="M148" s="1">
-        <v>44043.395219907405</v>
-      </c>
-      <c r="N148" s="2">
-        <v>20200731000709</v>
-      </c>
+        <v>20201223000130</v>
+      </c>
+      <c r="M148" s="1"/>
       <c r="U148" s="1"/>
       <c r="AC148" s="1"/>
-      <c r="AK148" s="1"/>
-      <c r="AS148" s="1"/>
-    </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>147</v>
+    </row>
+    <row r="149" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="B149">
         <v>4</v>
       </c>
       <c r="C149" s="1">
-        <v>44185.418796296297</v>
+        <v>43991.404756944445</v>
       </c>
       <c r="D149" s="2">
-        <v>20201220000155</v>
+        <v>20200609001016</v>
       </c>
       <c r="E149" s="1">
-        <v>44185.775590277779</v>
+        <v>43993.484189814815</v>
       </c>
       <c r="F149" s="2">
-        <v>20201220000450</v>
+        <v>20200611001127</v>
       </c>
       <c r="G149" s="1">
-        <v>44186.371087962965</v>
+        <v>44000.437685185185</v>
       </c>
       <c r="H149" s="2">
-        <v>20201221000155</v>
+        <v>20200618000579</v>
       </c>
       <c r="I149" s="1">
-        <v>44188.361493055556</v>
+        <v>44018.40247685185</v>
       </c>
       <c r="J149" s="2">
-        <v>20201223000130</v>
+        <v>20200706000512</v>
       </c>
       <c r="M149" s="1"/>
       <c r="U149" s="1"/>
       <c r="AC149" s="1"/>
     </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>148</v>
+    <row r="150" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="B150">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C150" s="1">
-        <v>43991.404756944445</v>
+        <v>43930.45888888889</v>
       </c>
       <c r="D150" s="2">
-        <v>20200609001016</v>
+        <v>20200409001101</v>
       </c>
       <c r="E150" s="1">
-        <v>43993.484189814815</v>
+        <v>43930.701817129629</v>
       </c>
       <c r="F150" s="2">
-        <v>20200611001127</v>
-      </c>
-      <c r="G150" s="1">
-        <v>44000.437685185185</v>
-      </c>
-      <c r="H150" s="2">
-        <v>20200618000579</v>
-      </c>
-      <c r="I150" s="1">
-        <v>44018.40247685185</v>
-      </c>
-      <c r="J150" s="2">
-        <v>20200706000512</v>
+        <v>20200409001739</v>
       </c>
       <c r="M150" s="1"/>
-      <c r="U150" s="1"/>
-      <c r="AC150" s="1"/>
-    </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>149</v>
+    </row>
+    <row r="151" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="B151">
         <v>2</v>
       </c>
       <c r="C151" s="1">
-        <v>43930.45888888889</v>
+        <v>43848.4455787037</v>
       </c>
       <c r="D151" s="2">
-        <v>20200409001101</v>
+        <v>20200118000372</v>
       </c>
       <c r="E151" s="1">
-        <v>43930.701817129629</v>
+        <v>43849.416863425926</v>
       </c>
       <c r="F151" s="2">
-        <v>20200409001739</v>
+        <v>20200119000572</v>
       </c>
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>150</v>
+    <row r="152" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="B152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C152" s="1">
-        <v>43848.4455787037</v>
+        <v>44127.421018518522</v>
       </c>
       <c r="D152" s="2">
-        <v>20200118000372</v>
+        <v>20201023001238</v>
       </c>
       <c r="E152" s="1">
-        <v>43849.416863425926</v>
+        <v>44127.680613425924</v>
       </c>
       <c r="F152" s="2">
-        <v>20200119000572</v>
+        <v>20201023002343</v>
+      </c>
+      <c r="G152" s="1">
+        <v>44128.635937500003</v>
+      </c>
+      <c r="H152" s="2">
+        <v>20201024001366</v>
       </c>
       <c r="M152" s="1"/>
-    </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>151</v>
+      <c r="U152" s="1"/>
+    </row>
+    <row r="153" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="B153">
         <v>3</v>
       </c>
       <c r="C153" s="1">
-        <v>44127.421018518522</v>
+        <v>44144.036597222221</v>
       </c>
       <c r="D153" s="2">
-        <v>20201023001238</v>
+        <v>20201109000009</v>
       </c>
       <c r="E153" s="1">
-        <v>44127.680613425924</v>
+        <v>44144.662314814814</v>
       </c>
       <c r="F153" s="2">
-        <v>20201023002343</v>
+        <v>20201109002507</v>
       </c>
       <c r="G153" s="1">
-        <v>44128.635937500003</v>
+        <v>44151.719687500001</v>
       </c>
       <c r="H153" s="2">
-        <v>20201024001366</v>
+        <v>20201116002842</v>
       </c>
       <c r="M153" s="1"/>
       <c r="U153" s="1"/>
     </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>152</v>
+    <row r="154" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="B154">
         <v>3</v>
       </c>
       <c r="C154" s="1">
-        <v>44144.036597222221</v>
+        <v>44177.976770833331</v>
       </c>
       <c r="D154" s="2">
-        <v>20201109000009</v>
+        <v>20201212001420</v>
       </c>
       <c r="E154" s="1">
-        <v>44144.662314814814</v>
+        <v>44179.473344907405</v>
       </c>
       <c r="F154" s="2">
-        <v>20201109002507</v>
+        <v>20201214001478</v>
       </c>
       <c r="G154" s="1">
-        <v>44151.719687500001</v>
+        <v>44180.36928240741</v>
       </c>
       <c r="H154" s="2">
-        <v>20201116002842</v>
+        <v>20201215000692</v>
       </c>
       <c r="M154" s="1"/>
       <c r="U154" s="1"/>
     </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>153</v>
+    <row r="155" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C155" s="1">
-        <v>44177.976770833331</v>
+        <v>44164.597175925926</v>
       </c>
       <c r="D155" s="2">
-        <v>20201212001420</v>
+        <v>20201129000299</v>
       </c>
       <c r="E155" s="1">
-        <v>44179.473344907405</v>
+        <v>44166.422858796293</v>
       </c>
       <c r="F155" s="2">
-        <v>20201214001478</v>
+        <v>20201201000806</v>
       </c>
       <c r="G155" s="1">
-        <v>44180.36928240741</v>
+        <v>44169.631157407406</v>
       </c>
       <c r="H155" s="2">
-        <v>20201215000692</v>
+        <v>20201204002069</v>
+      </c>
+      <c r="I155" s="1">
+        <v>44171.519212962965</v>
+      </c>
+      <c r="J155" s="2">
+        <v>20201206000249</v>
+      </c>
+      <c r="K155" s="1">
+        <v>44178.673333333332</v>
+      </c>
+      <c r="L155" s="2">
+        <v>20201213000349</v>
       </c>
       <c r="M155" s="1"/>
       <c r="U155" s="1"/>
-    </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>154</v>
+      <c r="AC155" s="1"/>
+      <c r="AK155" s="1"/>
+    </row>
+    <row r="156" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="B156">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" s="1">
-        <v>44164.597175925926</v>
+        <v>43891.306944444441</v>
       </c>
       <c r="D156" s="2">
-        <v>20201129000299</v>
+        <v>20200301000025</v>
       </c>
       <c r="E156" s="1">
-        <v>44166.422858796293</v>
+        <v>43892.606238425928</v>
       </c>
       <c r="F156" s="2">
-        <v>20201201000806</v>
+        <v>20200302000935</v>
       </c>
       <c r="G156" s="1">
-        <v>44169.631157407406</v>
+        <v>43899.676840277774</v>
       </c>
       <c r="H156" s="2">
-        <v>20201204002069</v>
+        <v>20200309001521</v>
       </c>
       <c r="I156" s="1">
-        <v>44171.519212962965</v>
+        <v>43906.621898148151</v>
       </c>
       <c r="J156" s="2">
-        <v>20201206000249</v>
+        <v>20200316000638</v>
       </c>
       <c r="K156" s="1">
-        <v>44178.673333333332</v>
+        <v>43910.593923611108</v>
       </c>
       <c r="L156" s="2">
-        <v>20201213000349</v>
-      </c>
-      <c r="M156" s="1"/>
+        <v>20200320001134</v>
+      </c>
+      <c r="M156" s="1">
+        <v>43998.640833333331</v>
+      </c>
+      <c r="N156" s="2">
+        <v>20200616001933</v>
+      </c>
       <c r="U156" s="1"/>
       <c r="AC156" s="1"/>
       <c r="AK156" s="1"/>
-    </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>155</v>
+      <c r="AS156" s="1"/>
+    </row>
+    <row r="157" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>184</v>
       </c>
       <c r="B157">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C157" s="1">
-        <v>43891.306944444441</v>
+        <v>43896.606898148151</v>
       </c>
       <c r="D157" s="2">
-        <v>20200301000025</v>
+        <v>20200306000927</v>
       </c>
       <c r="E157" s="1">
-        <v>43892.606238425928</v>
+        <v>43897.414479166669</v>
       </c>
       <c r="F157" s="2">
-        <v>20200302000935</v>
+        <v>20200307000267</v>
       </c>
       <c r="G157" s="1">
-        <v>43899.676840277774</v>
+        <v>43901.611724537041</v>
       </c>
       <c r="H157" s="2">
-        <v>20200309001521</v>
+        <v>20200311001116</v>
       </c>
       <c r="I157" s="1">
-        <v>43906.621898148151</v>
+        <v>43908.599282407406</v>
       </c>
       <c r="J157" s="2">
-        <v>20200316000638</v>
-      </c>
-      <c r="K157" s="1">
-        <v>43910.593923611108</v>
-      </c>
-      <c r="L157" s="2">
-        <v>20200320001134</v>
-      </c>
-      <c r="M157" s="1">
-        <v>43998.640833333331</v>
-      </c>
-      <c r="N157" s="2">
-        <v>20200616001933</v>
-      </c>
+        <v>20200318001188</v>
+      </c>
+      <c r="M157" s="1"/>
       <c r="U157" s="1"/>
       <c r="AC157" s="1"/>
-      <c r="AK157" s="1"/>
-      <c r="AS157" s="1"/>
-    </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>156</v>
+    </row>
+    <row r="158" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="B158">
         <v>4</v>
       </c>
       <c r="C158" s="1">
-        <v>43896.606898148151</v>
+        <v>44113.815972222219</v>
       </c>
       <c r="D158" s="2">
-        <v>20200306000927</v>
+        <v>20201009003102</v>
       </c>
       <c r="E158" s="1">
-        <v>43897.414479166669</v>
+        <v>44113.852083333331</v>
       </c>
       <c r="F158" s="2">
-        <v>20200307000267</v>
+        <v>20201009003124</v>
       </c>
       <c r="G158" s="1">
-        <v>43901.611724537041</v>
+        <v>44114.091666666667</v>
       </c>
       <c r="H158" s="2">
-        <v>20200311001116</v>
+        <v>20201010000011</v>
       </c>
       <c r="I158" s="1">
-        <v>43908.599282407406</v>
+        <v>44114.631249999999</v>
       </c>
       <c r="J158" s="2">
-        <v>20200318001188</v>
+        <v>20201010002296</v>
       </c>
       <c r="M158" s="1"/>
       <c r="U158" s="1"/>
       <c r="AC158" s="1"/>
     </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>157</v>
+    <row r="159" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="B159">
         <v>4</v>
       </c>
       <c r="C159" s="1">
-        <v>44113.815972222219</v>
+        <v>43931.736111111109</v>
       </c>
       <c r="D159" s="2">
-        <v>20201009003102</v>
+        <v>20200410001952</v>
       </c>
       <c r="E159" s="1">
-        <v>44113.852083333331</v>
+        <v>43932.385416666664</v>
       </c>
       <c r="F159" s="2">
-        <v>20201009003124</v>
+        <v>20200411000244</v>
       </c>
       <c r="G159" s="1">
-        <v>44114.091666666667</v>
+        <v>43934.590277777781</v>
       </c>
       <c r="H159" s="2">
-        <v>20201010000011</v>
+        <v>20200413001806</v>
       </c>
       <c r="I159" s="1">
-        <v>44114.631249999999</v>
+        <v>43944.479861111111</v>
       </c>
       <c r="J159" s="2">
-        <v>20201010002296</v>
+        <v>20200423000871</v>
       </c>
       <c r="M159" s="1"/>
       <c r="U159" s="1"/>
       <c r="AC159" s="1"/>
     </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>158</v>
+    <row r="160" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>187</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C160" s="1">
-        <v>43931.736111111109</v>
+        <v>43879.645138888889</v>
       </c>
       <c r="D160" s="2">
-        <v>20200410001952</v>
+        <v>20200218000582</v>
       </c>
       <c r="E160" s="1">
-        <v>43932.385416666664</v>
+        <v>43880.625694444447</v>
       </c>
       <c r="F160" s="2">
-        <v>20200411000244</v>
-      </c>
-      <c r="G160" s="1">
-        <v>43934.590277777781</v>
-      </c>
-      <c r="H160" s="2">
-        <v>20200413001806</v>
-      </c>
-      <c r="I160" s="1">
-        <v>43944.479861111111</v>
-      </c>
-      <c r="J160" s="2">
-        <v>20200423000871</v>
+        <v>20200219000588</v>
       </c>
       <c r="M160" s="1"/>
-      <c r="U160" s="1"/>
-      <c r="AC160" s="1"/>
-    </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>159</v>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
       <c r="C161" s="1">
-        <v>43879.645138888889</v>
+        <v>44064.938888888886</v>
       </c>
       <c r="D161" s="2">
-        <v>20200218000582</v>
+        <v>20200821002584</v>
       </c>
       <c r="E161" s="1">
-        <v>43880.625694444447</v>
+        <v>44065.500694444447</v>
       </c>
       <c r="F161" s="2">
-        <v>20200219000588</v>
+        <v>20200822000947</v>
       </c>
       <c r="M161" s="1"/>
-    </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>2</v>
-      </c>
-      <c r="C162" s="1">
-        <v>44064.938888888886</v>
-      </c>
-      <c r="D162" s="2">
-        <v>20200821002584</v>
-      </c>
-      <c r="E162" s="1">
-        <v>44065.500694444447</v>
-      </c>
-      <c r="F162" s="2">
-        <v>20200822000947</v>
-      </c>
-      <c r="M162" s="1"/>
-    </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>4</v>
-      </c>
-      <c r="C163" s="1">
-        <v>44124.120138888888</v>
-      </c>
-      <c r="D163" s="2">
-        <v>20201020000015</v>
-      </c>
-      <c r="E163" s="1">
-        <v>44124.506944444445</v>
-      </c>
-      <c r="F163" s="2">
-        <v>20201020002023</v>
-      </c>
-      <c r="G163" s="1">
-        <v>44125.397916666669</v>
-      </c>
-      <c r="H163" s="2">
-        <v>20201021000940</v>
-      </c>
-      <c r="I163" s="1">
-        <v>44126.384722222225</v>
-      </c>
-      <c r="J163" s="2">
-        <v>20201022000794</v>
-      </c>
-      <c r="M163" s="1"/>
-      <c r="U163" s="1"/>
-      <c r="AC163" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
